--- a/BookMyShow/TestData/InputData.xlsx
+++ b/BookMyShow/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="2175"/>
+    <workbookView windowWidth="15360" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="MovieBooking" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>city</t>
   </si>
@@ -22,10 +22,49 @@
     <t>numberofseats</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mobno</t>
+  </si>
+  <si>
+    <t>cardno</t>
+  </si>
+  <si>
+    <t>nameoncard</t>
+  </si>
+  <si>
+    <t>cardexpirymonth</t>
+  </si>
+  <si>
+    <t>cardexpiryyear</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
     <t>trivandrum</t>
   </si>
   <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>9876543234567</t>
+  </si>
+  <si>
+    <t>abcsde</t>
+  </si>
+  <si>
     <t>kochi</t>
+  </si>
+  <si>
+    <t>abigc@gmail.com</t>
+  </si>
+  <si>
+    <t>123456789876543</t>
+  </si>
+  <si>
+    <t>bvfdsa</t>
   </si>
 </sst>
 </file>
@@ -639,8 +678,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,43 +1001,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="15.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857"/>
+    <col min="5" max="5" width="15.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="13.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>9876543210</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>465</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1234567890</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>987</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="abc@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="abigc@gmail.com" tooltip="mailto:abigc@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
